--- a/biology/Botanique/Poivron/Poivron.xlsx
+++ b/biology/Botanique/Poivron/Poivron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Capsicum annuum
-Les poivrons sont des variétés de piments doux de l'espèce Capsicum annuum à très gros fruits[1]. Le terme désigne à la fois le fruit et la plante.
+Les poivrons sont des variétés de piments doux de l'espèce Capsicum annuum à très gros fruits. Le terme désigne à la fois le fruit et la plante.
 C'est une plante vivace cultivée comme une annuelle de la famille des Solanacées originaire du Mexique, d'Amérique centrale et d'Amérique du Sud. La plante est cultivée comme plante potagère pour ses fruits consommés, crus ou cuits, comme légumes.
 Le poivron est l'ingrédient indispensable d'un certain nombre de plats, comme la piperade ou la ratatouille, mais il peut aussi bien servir d'accompagnement.
-Les graines de poivrons ont été importées en Espagne pour la première fois en 1493, et se sont propagées vers l'Europe et l'Asie[2]. L'appellation poivron est dérivée du mot poivre, et fait son apparition à l'écrit en 1785[3].
+Les graines de poivrons ont été importées en Espagne pour la première fois en 1493, et se sont propagées vers l'Europe et l'Asie. L'appellation poivron est dérivée du mot poivre, et fait son apparition à l'écrit en 1785.
 </t>
         </is>
       </c>
@@ -515,13 +527,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante annuelle en climat tempéré, car elle ne résiste pas au gel, mais pouvant vivre plusieurs années en climat tropical.
 Port dressé, presqu'arbustif, très ramifié, les tiges de la base ont tendance à se lignifier. La plante atteint 40 à 50 cm de haut en général à la suite d'une germination ayant duré de 7 à 15 jours.
-Les feuilles, alternes, lancéolées, se terminant en pointe, sont d'un vert brillant. Les fleurs, nombreuses et petites, sont blanches, à pétales soudés et pointus, au nombre de 6 à 8. Le fruit est une baie d'un type particulier, la pulpe, relativement mince et formant une espèce de capsule entourant un placenta plus ou moins volumineux portant de nombreuses graines. Extérieurement, la peau est lisse et brillante, de couleur vert brillant avant maturité, elle prend à maturité une couleur vive : jaune, orange, rouge, violet ou marron[4].
+Les feuilles, alternes, lancéolées, se terminant en pointe, sont d'un vert brillant. Les fleurs, nombreuses et petites, sont blanches, à pétales soudés et pointus, au nombre de 6 à 8. Le fruit est une baie d'un type particulier, la pulpe, relativement mince et formant une espèce de capsule entourant un placenta plus ou moins volumineux portant de nombreuses graines. Extérieurement, la peau est lisse et brillante, de couleur vert brillant avant maturité, elle prend à maturité une couleur vive : jaune, orange, rouge, violet ou marron.
 Les graines sont petites, plates, réniformes, de couleur crème.
-Les poivrons se distinguent des piments par des fruits plus gros et plus charnus, et surtout dépourvus de capsaïcine[5].
+Les poivrons se distinguent des piments par des fruits plus gros et plus charnus, et surtout dépourvus de capsaïcine.
 </t>
         </is>
       </c>
@@ -550,9 +564,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante n'est connue qu'à l'état cultivé, son ancêtre sauvage étant Capsicum annuum[5]. Elle est originaire d'Amérique du Sud et a été probablement domestiquée au Mexique, où on a retrouvé des graines vieilles de 5000 ans.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante n'est connue qu'à l'état cultivé, son ancêtre sauvage étant Capsicum annuum. Elle est originaire d'Amérique du Sud et a été probablement domestiquée au Mexique, où on a retrouvé des graines vieilles de 5000 ans.
 Elle est cultivée dans le monde entier, depuis qu'elle a été introduite dans l'ancien monde à la fin du XVe siècle. Elle s'est répandue très facilement surtout sous la forme piquante, le piment. Le poivron semble s'être répandu plus tard, à la fin du XVIIIe siècle en France et en Europe et au Canada.
 </t>
         </is>
@@ -582,9 +598,11 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le poivron est une espèce très polymorphe. Selon leurs formes, on distingue différents types variétaux[6] : 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le poivron est une espèce très polymorphe. Selon leurs formes, on distingue différents types variétaux : 
 Carrés;
 En cône allongé;
 En cône large;
@@ -624,10 +642,12 @@
           <t>Allergies au pollen de poivron</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Une quantité croissante de poivron est cultivé en serre (c'est le premier légume de serre aux Pays-Bas où environ 8 000 ouvriers agricoles le cultivent sur 10 000 hectares de serre).
-Ses fleurs produisent un pollen irritant auquel les travailleurs des serres sont exposés quand ils cueillent les poivrons. Un tiers de ces travailleurs finissent par devenir allergiques (avec démangeaisons, nez bouché ou coulant et parfois aggravation jusqu'à la crise d'asthme). On a montré au début des années 2000 qu'introduire une colonie d'abeille domestique (ruche) dans la serre diminue considérablement ce risque[7]. Dans les serres où les abeilles étaient présentes, le pollen était récolté par les abeilles sur les anthères au fur et à mesure de sa production et les symptômes d'allergies diminuaient ou disparaissaient chez les travailleurs.
+Ses fleurs produisent un pollen irritant auquel les travailleurs des serres sont exposés quand ils cueillent les poivrons. Un tiers de ces travailleurs finissent par devenir allergiques (avec démangeaisons, nez bouché ou coulant et parfois aggravation jusqu'à la crise d'asthme). On a montré au début des années 2000 qu'introduire une colonie d'abeille domestique (ruche) dans la serre diminue considérablement ce risque. Dans les serres où les abeilles étaient présentes, le pollen était récolté par les abeilles sur les anthères au fur et à mesure de sa production et les symptômes d'allergies diminuaient ou disparaissaient chez les travailleurs.
 </t>
         </is>
       </c>
@@ -656,7 +676,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le poivron (le fruit de cette plante) se récolte soit vert, soit mûr ; et se consomme comme légume soit cru, soit cuit.
 Cru, le poivron, à texture cassante, entre, découpé en rondelles ou en morceaux, dans la composition de salades avec tomates et oignons. Lorsqu'il est consommé cru, le poivron est peu digeste : sa peau et ses fibres épaisses sont mal supportées par les intestins fragiles. Avant de le consommer, il faut donc retirer ses fibres blanches coriaces à l'intérieur, toutes ses graines et, idéalement, sa peau (en la pelant ou en la faisant cuire).
@@ -691,7 +713,9 @@
           <t>Aspects économiques</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La production mondiale de poivrons est estimée à 23,2 millions de tonnes (source FAO, 2007). Le premier producteur mondial est la Chine avec 14 millions de tonnes, soit près de 50 %.
 La France en produit 27 000 t, mais en importe 115 000 t, principalement d'Italie et d'Espagne.
@@ -723,9 +747,11 @@
           <t>Propriétés médicinales</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le poivron contient une substance, la lutéoline, qui est une flavone qui active des circuits neuronaux impliqués dans l'apprentissage[8]. Le poivron est aussi actif en matière de cancer : les capsiates sont des substances du poivron qui peuvent provoquer la mort des cellules tumorales[9]. Les capsiates sont très proches des capsinoïdes contenues dans le piment et elles ont le même effet. Il est aussi riche en vitamine C, laquelle a été extraite pour la première fois en 1933 à partir du poivron et du paprika par Albert Szent-Györgyi[5].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le poivron contient une substance, la lutéoline, qui est une flavone qui active des circuits neuronaux impliqués dans l'apprentissage. Le poivron est aussi actif en matière de cancer : les capsiates sont des substances du poivron qui peuvent provoquer la mort des cellules tumorales. Les capsiates sont très proches des capsinoïdes contenues dans le piment et elles ont le même effet. Il est aussi riche en vitamine C, laquelle a été extraite pour la première fois en 1933 à partir du poivron et du paprika par Albert Szent-Györgyi.
 </t>
         </is>
       </c>
@@ -755,6 +781,8 @@
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,11 +808,13 @@
           <t>Pesticides</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon une étude la DG Sanco de 2001, l'endosulfan a été retrouvé dans 31,7 % des poivrons testés. L'endosulfan est maintenant interdit d'utilisation en Europe car trop polluant pour l'environnement et trop dangereux pour la santé humaine et animale.
 Et le methamidofos dans 20,7 % des cas, les Limites Maximales en Résidus (LMR) étant excédés dans 18,7 % de ces
-échantillons[12].[réf. à confirmer]
+échantillons.[réf. à confirmer]
 Sur les autres projets Wikimedia :
 Poivron, sur Wikimedia CommonsPoivron, sur Wikispecies
 </t>
